--- a/data/trans_orig/TAM_HOG-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 3,8</t>
+          <t>3,58; 3,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 3,82</t>
+          <t>3,62; 3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 3,66</t>
+          <t>3,41; 3,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 3,7</t>
+          <t>3,3; 3,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 3,94</t>
+          <t>3,72; 3,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 3,93</t>
+          <t>3,68; 3,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 3,51</t>
+          <t>3,26; 3,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 3,75</t>
+          <t>3,37; 3,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 3,83</t>
+          <t>3,67; 3,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 3,84</t>
+          <t>3,69; 3,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 3,56</t>
+          <t>3,36; 3,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 3,67</t>
+          <t>3,39; 3,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,19</t>
+          <t>3,0; 3,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,2</t>
+          <t>3,0; 3,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,18</t>
+          <t>2,97; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,87</t>
+          <t>2,55; 2,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,32</t>
+          <t>3,14; 3,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 3,39</t>
+          <t>3,19; 3,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,22</t>
+          <t>3,03; 3,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,06</t>
+          <t>2,55; 3,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,23</t>
+          <t>3,09; 3,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,26</t>
+          <t>3,12; 3,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,17</t>
+          <t>3,03; 3,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,9</t>
+          <t>2,61; 2,91</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 3,6</t>
+          <t>3,41; 3,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1019,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,1</t>
+          <t>2,88; 3,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 3,89</t>
+          <t>3,72; 3,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 3,83</t>
+          <t>3,68; 3,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 3,55</t>
+          <t>3,39; 3,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 3,47</t>
+          <t>3,28; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 3,69</t>
+          <t>3,55; 3,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 3,69</t>
+          <t>3,58; 3,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 3,37</t>
+          <t>3,24; 3,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,27</t>
+          <t>3,13; 3,26</t>
         </is>
       </c>
     </row>
@@ -1144,34 +1144,34 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,37; 3,57</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 3,54</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 3,2</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 3,66</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 3,63</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,36; 3,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 3,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 3,21</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 3,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 3,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 3,57</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>3,2; 3,39</t>
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 3,38</t>
+          <t>3,2; 3,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 3,58</t>
+          <t>3,41; 3,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 3,53</t>
+          <t>3,37; 3,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,27</t>
+          <t>3,13; 3,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,53</t>
+          <t>3,07; 3,58</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1284,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,08</t>
+          <t>2,84; 3,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,07</t>
+          <t>2,84; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 2,85</t>
+          <t>2,62; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 2,63</t>
+          <t>2,44; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,08</t>
+          <t>2,83; 3,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,89</t>
+          <t>2,65; 2,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 2,95</t>
+          <t>2,78; 2,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,69</t>
+          <t>2,53; 2,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,56</t>
+          <t>2,45; 2,56</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,47</t>
+          <t>2,26; 2,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 2,5</t>
+          <t>2,26; 2,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,17</t>
+          <t>2,02; 2,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,32</t>
+          <t>2,11; 2,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,28</t>
+          <t>2,07; 2,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,26</t>
+          <t>2,03; 2,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,74</t>
+          <t>1,9; 2,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,35</t>
+          <t>2,2; 2,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,35</t>
+          <t>2,19; 2,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,28</t>
+          <t>2,13; 2,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,64</t>
+          <t>1,99; 2,57</t>
         </is>
       </c>
     </row>
@@ -1564,27 +1564,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,27</t>
+          <t>2,01; 2,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,27</t>
+          <t>2,01; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,12</t>
+          <t>1,89; 2,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 1,97</t>
+          <t>1,8; 1,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,19</t>
+          <t>1,91; 2,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,04</t>
+          <t>1,81; 2,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,22 +1604,22 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,18</t>
+          <t>1,99; 2,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,13</t>
+          <t>1,95; 2,14</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,04</t>
+          <t>1,87; 2,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 1,75</t>
+          <t>1,65; 1,74</t>
         </is>
       </c>
     </row>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,99</t>
+          <t>2,89; 2,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,07</t>
+          <t>2,7; 3,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,26</t>
+          <t>3,17; 3,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,83</t>
+          <t>2,73; 2,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,23</t>
+          <t>3,16; 3,22</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,97</t>
+          <t>2,9; 2,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
